--- a/ProcessingCheckListWss/bin/Debug/FilesToProccessing/Objections/Возражения.xlsx
+++ b/ProcessingCheckListWss/bin/Debug/FilesToProccessing/Objections/Возражения.xlsx
@@ -9,18 +9,13 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Возражения'!$A$2:$J$39</definedName>
   </definedNames>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhz8mx0VZRqSiOxOg/ki+Oec81xtw=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="242">
-  <si>
-    <t>Возражения по звонкам по 17.12</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="340">
+  <si>
+    <t>Возражения по звонкам по 30.12</t>
   </si>
   <si>
     <t>Статистика</t>
@@ -335,24 +330,27 @@
     <t>Менеджер объяснил по какой причине задержка по доставке. Предложить альтернативы нет - потому что товара в наличии нет.</t>
   </si>
   <si>
+    <t>Степанова</t>
+  </si>
+  <si>
+    <t>nauss_1605791649_896_89498</t>
+  </si>
+  <si>
+    <t>19.11.2020</t>
+  </si>
+  <si>
+    <t>Скидка</t>
+  </si>
+  <si>
+    <t>Скидка. Хотел скидку</t>
+  </si>
+  <si>
+    <t>Скидка постоянным клиентам. При большом заказе.</t>
+  </si>
+  <si>
     <t>Итого</t>
   </si>
   <si>
-    <t>nauss_1605791649_896_89498</t>
-  </si>
-  <si>
-    <t>19.11.2020</t>
-  </si>
-  <si>
-    <t>Скидка</t>
-  </si>
-  <si>
-    <t>Скидка. Хотел скидку</t>
-  </si>
-  <si>
-    <t>Скидка постоянным клиентам. При большом заказе.</t>
-  </si>
-  <si>
     <t>nauss_1605687380_952_84416</t>
   </si>
   <si>
@@ -744,6 +742,297 @@
   </si>
   <si>
     <t xml:space="preserve">Не смог спросить данные клиента более корректно, или указать только имя. </t>
+  </si>
+  <si>
+    <t>nauss_1608554749_611_191292</t>
+  </si>
+  <si>
+    <t>21.12.2020</t>
+  </si>
+  <si>
+    <t>Клиента не устроили</t>
+  </si>
+  <si>
+    <t>Клиента не устроили ,что ближайшая доставка в конце недели.</t>
+  </si>
+  <si>
+    <t>Что ближайшая доставка в конце недели</t>
+  </si>
+  <si>
+    <t>nauss_1608283859_868_182180</t>
+  </si>
+  <si>
+    <t>18.12.2020</t>
+  </si>
+  <si>
+    <t>Другое. Клиент отказывается называть отчество.</t>
+  </si>
+  <si>
+    <t>Менеджер пояснил,что отчество клиента необходимо при оплате картой и это условия их фирмы.</t>
+  </si>
+  <si>
+    <t>nauss_1608631995_275_194278</t>
+  </si>
+  <si>
+    <t>22.12.2020</t>
+  </si>
+  <si>
+    <t>Клиента не устоила сумма доставки и то</t>
+  </si>
+  <si>
+    <t>Клиента не устоила сумма доставки и то,что менеджер сразу не озвучил,что за МКАД отдельная плата.</t>
+  </si>
+  <si>
+    <t>Менеджер пояснил,что он может сказать о доп плате когда клиент назовет адрес</t>
+  </si>
+  <si>
+    <t>Что менеджер сразу не озвучил</t>
+  </si>
+  <si>
+    <t>Что за мкад отдельная плата</t>
+  </si>
+  <si>
+    <t>nauss_1608283146_563_182102</t>
+  </si>
+  <si>
+    <t>Доставка. Клиента не устраивали сроки доставки</t>
+  </si>
+  <si>
+    <t>Менеджер объяснил про сроки доставки</t>
+  </si>
+  <si>
+    <t>nauss_1608569539_368_192622</t>
+  </si>
+  <si>
+    <t>Предоплата</t>
+  </si>
+  <si>
+    <t>Клиента смущала 100% предоплата.</t>
+  </si>
+  <si>
+    <t>Менеджер пояснил,где можно проверить данные фирмы и предложил,если есть возможность,доставить товар кому нибудь в Москве.</t>
+  </si>
+  <si>
+    <t>nauss_1608534537_949_188800</t>
+  </si>
+  <si>
+    <t>Клиента не устроило</t>
+  </si>
+  <si>
+    <t>Клиента не устроило,что если оплачивать как юр лицо срок доставки увеличится.</t>
+  </si>
+  <si>
+    <t>Менеджер пояснил,что оплата по счету всегда дольше.</t>
+  </si>
+  <si>
+    <t>Что если оплачивать как юр лицо срок доставки увеличится</t>
+  </si>
+  <si>
+    <t>nauss_1608729887_349_199204</t>
+  </si>
+  <si>
+    <t>23.12.2020</t>
+  </si>
+  <si>
+    <t>Клиенту не привезли товар на склад</t>
+  </si>
+  <si>
+    <t>Клиенту не привезли товар на склад,а в другой фирме он отказался от покупки.</t>
+  </si>
+  <si>
+    <t>Менеджер пояснил,что брак товара это форс мажор и предложил рассмотреть аналоги</t>
+  </si>
+  <si>
+    <t>А в другой фирме он отказался от покупки</t>
+  </si>
+  <si>
+    <t>nauss_1608280001_836_181806</t>
+  </si>
+  <si>
+    <t>Цена. Сроки. Клиента возмутила цена и ждать месяц.</t>
+  </si>
+  <si>
+    <t>Без всяких аргументов.</t>
+  </si>
+  <si>
+    <t>Чалый</t>
+  </si>
+  <si>
+    <t>nauss_1608468832_785_187882</t>
+  </si>
+  <si>
+    <t>20.12.2020</t>
+  </si>
+  <si>
+    <t>Другое. Клиент сравнил цену с конкурентами.</t>
+  </si>
+  <si>
+    <t>Менеджер, на низкую цену конкурентов, привел множество примеров и аргументов и при этом предложил оформить пред-заказ с фиксированной стоимостью.</t>
+  </si>
+  <si>
+    <t>nauss_1607498078_492_151598</t>
+  </si>
+  <si>
+    <t>09.12.2020</t>
+  </si>
+  <si>
+    <t>Сроки. Сроки доставки.</t>
+  </si>
+  <si>
+    <t>Доставка. Клиента не устроило, что ближайшая доставка в конце недели.</t>
+  </si>
+  <si>
+    <t>Цена. Клиента не устроила сумма доставки и то,что менеджер сразу не озвучил,что за МКАД отдельная плата.</t>
+  </si>
+  <si>
+    <t>nauss_1608981993_279_209576</t>
+  </si>
+  <si>
+    <t>26.12.2020</t>
+  </si>
+  <si>
+    <t>Другое. Клиент хотел посмотреть товар</t>
+  </si>
+  <si>
+    <t>Менеджер пояснил,что фото соответствует товару и прежде чем оплатить по факту клиент может посмотреть товар.</t>
+  </si>
+  <si>
+    <t>nauss_1607338043_313_144908</t>
+  </si>
+  <si>
+    <t>07.12.2020</t>
+  </si>
+  <si>
+    <t>Другое. Клиента смутила характеристика товара по документам</t>
+  </si>
+  <si>
+    <t>Менеджер пояснил нюансы по производительности вытяжки и по документам</t>
+  </si>
+  <si>
+    <t>nauss_1607502175_680_151966</t>
+  </si>
+  <si>
+    <t>Другое. Клиент хотела красивую СВЧ и дух шкаф.</t>
+  </si>
+  <si>
+    <t>Менеджер пытался предложить альтернативу,но клиент не мог обозначить нужные характеристики</t>
+  </si>
+  <si>
+    <t>nauss_1607501219_459_151850</t>
+  </si>
+  <si>
+    <t>Другое. Клиент нашел товар где можно расплатиться картой и получить бонусы</t>
+  </si>
+  <si>
+    <t>Менеджер предложил скидку ниже цены у конкурентов</t>
+  </si>
+  <si>
+    <t>nauss_1608214573_442_180518</t>
+  </si>
+  <si>
+    <t>17.12.2020</t>
+  </si>
+  <si>
+    <t>Доставка. Клиента не устраивают сроки доставки.У конкурентов быстрее.</t>
+  </si>
+  <si>
+    <t>Менеджер предложил скидку и пояснил,что у конкурентов будет дороже</t>
+  </si>
+  <si>
+    <t>Предоплата. Клиента смущала 100% предоплата.</t>
+  </si>
+  <si>
+    <t>nauss_1608566012_180_192382</t>
+  </si>
+  <si>
+    <t>Доставка. Клиент пояснил,что с учетом доставки покупать не выгодно и нашел другую фирму</t>
+  </si>
+  <si>
+    <t>Оплата. Клиента не устроило,что если оплачивать как юр лицо срок доставки увеличится.</t>
+  </si>
+  <si>
+    <t>nauss_1608533968_471_188738</t>
+  </si>
+  <si>
+    <t>Цена. Конкуренты. Клиент заказал в другом магазине товар дешевле,но другого цвета</t>
+  </si>
+  <si>
+    <t>Менеджер предложил вытяжку нужного цвета по цене конкурента.</t>
+  </si>
+  <si>
+    <t>nauss_1608828413_824_204112</t>
+  </si>
+  <si>
+    <t>24.12.2020</t>
+  </si>
+  <si>
+    <t>Скидка. Клиент сказал,что партнеры предлагают скидку больше.</t>
+  </si>
+  <si>
+    <t>Менеджер уточнит информацию</t>
+  </si>
+  <si>
+    <t>25.12.2020</t>
+  </si>
+  <si>
+    <t>nauss_1608884426_324_204984</t>
+  </si>
+  <si>
+    <t>Цена. Клиент нашел такую же дешевле.</t>
+  </si>
+  <si>
+    <t>Менеджер предложил скидку или аналог</t>
+  </si>
+  <si>
+    <t>nauss_1609153477_735_213982</t>
+  </si>
+  <si>
+    <t>28.12.2020</t>
+  </si>
+  <si>
+    <t>Цена. Доставка. Клиента не устроила сумма доставки</t>
+  </si>
+  <si>
+    <t>Менеджер предложил самовывоз</t>
+  </si>
+  <si>
+    <t>nauss_1608893018_67_206886</t>
+  </si>
+  <si>
+    <t>Другое.Модель под заказ, по наличию- не устроило по цене. Выбран желаемый вариант.</t>
+  </si>
+  <si>
+    <t>Предложено зафиксировать цену, оформил пред-заказ, по прибытию товара перезвонит клиенту, для альтернативы был предложен товар по наличию.</t>
+  </si>
+  <si>
+    <t>25.01.2021</t>
+  </si>
+  <si>
+    <t>nauss_1608892789_995_206854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Другое.Сравнение с другим сайтом. Предложение менеджера заинтересовало. </t>
+  </si>
+  <si>
+    <t>Предложена скидка, фиксация цены при оформлении предзаказа, созвон с клиентом при наличие данного товара.</t>
+  </si>
+  <si>
+    <t>nauss_1608882495_989_204812</t>
+  </si>
+  <si>
+    <t>Другое. Клиента интересовало представленные разные цены, данного товара.</t>
+  </si>
+  <si>
+    <t>Привел три аргумента ("серые", старая закупка, повреждения) и предоставил скидку.</t>
+  </si>
+  <si>
+    <t>nauss_1608814201_810_202994</t>
+  </si>
+  <si>
+    <t>Другое. Клиент описал, что ожидал от менеджера при подборе стиральной машины. Помощь в выборе лучшего и оптимального.</t>
+  </si>
+  <si>
+    <t>Не подобрал конкретные модели для просмотра, перевел сразу на представительство.</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1360,7 @@
     <col customWidth="1" min="9" max="10" width="10.71"/>
     <col customWidth="1" min="11" max="11" width="9.14"/>
     <col customWidth="1" min="12" max="17" width="20.71"/>
-    <col customWidth="1" min="18" max="26" width="8.71"/>
+    <col customWidth="1" min="18" max="26" width="15.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -1181,23 +1470,23 @@
         <v>26</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" ref="M3:M19" si="1">COUNTIFS($E$3:$E$10000,"Дорого",$A$3:$A$10000,L3) + COUNTIFS($E$3:$E$10000,"Стоимость",$A$3:$A$10000,L3) + COUNTIFS($E$3:$E$10000,"Цена",$A$3:$A$10000,L3)</f>
+        <f t="shared" ref="M3:M20" si="1">COUNTIFS($E$3:$E$10000,"Дорого",$A$3:$A$10000,L3) + COUNTIFS($E$3:$E$10000,"Стоимость",$A$3:$A$10000,L3) + COUNTIFS($E$3:$E$10000,"Цена",$A$3:$A$10000,L3)</f>
         <v>0</v>
       </c>
       <c r="N3" s="5">
-        <f t="shared" ref="N3:N19" si="2">COUNTIFS($E$6:$E$10000,N$2,$A$6:$A$10000,L3)</f>
+        <f t="shared" ref="N3:N20" si="2">COUNTIFS($E$6:$E$10000,N$2,$A$6:$A$10000,L3)</f>
         <v>0</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O19" si="3">COUNTIFS($E$3:$E$10000,O$2,$A$3:$A$10000,L3)</f>
+        <f t="shared" ref="O3:O20" si="3">COUNTIFS($E$3:$E$10000,O$2,$A$3:$A$10000,L3)</f>
         <v>0</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" ref="P3:P19" si="4">COUNTIFS($E$3:$E$10000,P$2,$A$3:$A$10000,L3)</f>
+        <f t="shared" ref="P3:P20" si="4">COUNTIFS($E$3:$E$10000,P$2,$A$3:$A$10000,L3)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="5">
-        <f t="shared" ref="Q3:Q19" si="5">COUNTIFS($A$3:$A$10000,L3) - SUM($M3:$P3)</f>
+        <f t="shared" ref="Q3:Q20" si="5">COUNTIFS($A$3:$A$10000,L3) - SUM($M3:$P3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1347,7 +1636,7 @@
       </c>
       <c r="N6" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" si="3"/>
@@ -1359,7 +1648,7 @@
       </c>
       <c r="Q6" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -1518,7 +1807,7 @@
       </c>
       <c r="Q9" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -1661,11 +1950,11 @@
       </c>
       <c r="M12" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" si="3"/>
@@ -1677,7 +1966,7 @@
       </c>
       <c r="Q12" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -1714,15 +2003,15 @@
       </c>
       <c r="M13" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="4"/>
@@ -1730,7 +2019,7 @@
       </c>
       <c r="Q13" s="5">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -1783,7 +2072,7 @@
       </c>
       <c r="Q14" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -1834,7 +2123,7 @@
       </c>
       <c r="Q15" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -1938,7 +2227,7 @@
       </c>
       <c r="Q17" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
@@ -2040,7 +2329,7 @@
       </c>
       <c r="Q19" s="5">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -2075,25 +2364,25 @@
       <c r="L20" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M20" s="4">
-        <f t="shared" ref="M20:Q20" si="6">SUM(M3:M19)</f>
-        <v>19</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="O20" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P20" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="6"/>
-        <v>31</v>
+      <c r="M20" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -2125,6 +2414,29 @@
         <v>31</v>
       </c>
       <c r="J21" s="5"/>
+      <c r="L21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" ref="M21:Q21" si="6">SUM(M3:M20)</f>
+        <v>26</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="4" t="s">
@@ -2134,22 +2446,22 @@
         <v>18</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>83</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>38</v>
@@ -2164,22 +2476,22 @@
         <v>62</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>24</v>
@@ -2194,22 +2506,22 @@
         <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>38</v>
@@ -2224,16 +2536,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>36</v>
@@ -2252,22 +2564,22 @@
         <v>62</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>38</v>
@@ -2282,22 +2594,22 @@
         <v>62</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>24</v>
@@ -2312,16 +2624,16 @@
         <v>18</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>36</v>
@@ -2340,22 +2652,22 @@
         <v>18</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>31</v>
@@ -2370,22 +2682,22 @@
         <v>62</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>24</v>
@@ -2400,22 +2712,22 @@
         <v>18</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>31</v>
@@ -2430,22 +2742,22 @@
         <v>62</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>31</v>
@@ -2460,22 +2772,22 @@
         <v>18</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>24</v>
@@ -2490,22 +2802,22 @@
         <v>18</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>38</v>
@@ -2520,22 +2832,22 @@
         <v>18</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>24</v>
@@ -2550,22 +2862,22 @@
         <v>62</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>108</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>24</v>
@@ -2580,22 +2892,22 @@
         <v>62</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>24</v>
@@ -2610,22 +2922,22 @@
         <v>62</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>38</v>
@@ -2640,22 +2952,22 @@
         <v>18</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>24</v>
@@ -2670,22 +2982,22 @@
         <v>18</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>38</v>
@@ -2700,16 +3012,16 @@
         <v>18</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>36</v>
@@ -2728,22 +3040,22 @@
         <v>18</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>38</v>
@@ -2758,22 +3070,22 @@
         <v>18</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>83</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>31</v>
@@ -2788,22 +3100,22 @@
         <v>18</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>83</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>24</v>
@@ -2818,22 +3130,22 @@
         <v>18</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>38</v>
@@ -2848,22 +3160,22 @@
         <v>62</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>38</v>
@@ -2878,22 +3190,22 @@
         <v>62</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>38</v>
@@ -2908,22 +3220,22 @@
         <v>18</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>38</v>
@@ -2938,22 +3250,22 @@
         <v>18</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>38</v>
@@ -2968,22 +3280,22 @@
         <v>18</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>38</v>
@@ -2998,22 +3310,22 @@
         <v>18</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>83</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>38</v>
@@ -3028,22 +3340,22 @@
         <v>18</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>38</v>
@@ -3058,22 +3370,22 @@
         <v>18</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>83</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>31</v>
@@ -3088,22 +3400,22 @@
         <v>62</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>24</v>
@@ -3118,22 +3430,22 @@
         <v>62</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>24</v>
@@ -3148,22 +3460,22 @@
         <v>62</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>24</v>
@@ -3178,22 +3490,22 @@
         <v>62</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>24</v>
@@ -3208,22 +3520,22 @@
         <v>62</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>24</v>
@@ -3238,22 +3550,22 @@
         <v>62</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>24</v>
@@ -3268,88 +3580,1826 @@
         <v>62</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>38</v>
       </c>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="A87" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" ht="14.25" customHeight="1">
+      <c r="A89" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" ht="14.25" customHeight="1">
+      <c r="A93" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" ht="14.25" customHeight="1">
+      <c r="A95" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="A96" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" ht="14.25" customHeight="1">
+      <c r="A97" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="A102" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="A103" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="A104" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" ht="14.25" customHeight="1">
+      <c r="A113" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="A114" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="A115" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" ht="14.25" customHeight="1">
+      <c r="A116" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" ht="14.25" customHeight="1">
+      <c r="A117" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" ht="14.25" customHeight="1">
+      <c r="A118" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" ht="14.25" customHeight="1">
+      <c r="A119" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" ht="14.25" customHeight="1">
+      <c r="A120" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J120" s="5"/>
+    </row>
     <row r="121" ht="14.25" customHeight="1"/>
     <row r="122" ht="14.25" customHeight="1"/>
     <row r="123" ht="14.25" customHeight="1"/>
@@ -3550,686 +5600,686 @@
     <row r="318" ht="14.25" customHeight="1"/>
     <row r="319" ht="14.25" customHeight="1"/>
     <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="$A$2:$J$39">
     <sortState ref="A2:J39">
@@ -4263,10 +6313,70 @@
     <hyperlink r:id="rId20" ref="C58"/>
     <hyperlink r:id="rId21" ref="C59"/>
     <hyperlink r:id="rId22" ref="C60"/>
+    <hyperlink r:id="rId23" ref="C61"/>
+    <hyperlink r:id="rId24" ref="C62"/>
+    <hyperlink r:id="rId25" ref="C63"/>
+    <hyperlink r:id="rId26" ref="C64"/>
+    <hyperlink r:id="rId27" ref="C65"/>
+    <hyperlink r:id="rId28" ref="C66"/>
+    <hyperlink r:id="rId29" ref="C67"/>
+    <hyperlink r:id="rId30" ref="C68"/>
+    <hyperlink r:id="rId31" ref="C69"/>
+    <hyperlink r:id="rId32" ref="C70"/>
+    <hyperlink r:id="rId33" ref="C71"/>
+    <hyperlink r:id="rId34" ref="C72"/>
+    <hyperlink r:id="rId35" ref="C73"/>
+    <hyperlink r:id="rId36" ref="C74"/>
+    <hyperlink r:id="rId37" ref="C75"/>
+    <hyperlink r:id="rId38" ref="C76"/>
+    <hyperlink r:id="rId39" ref="C77"/>
+    <hyperlink r:id="rId40" ref="C78"/>
+    <hyperlink r:id="rId41" ref="C79"/>
+    <hyperlink r:id="rId42" ref="C80"/>
+    <hyperlink r:id="rId43" ref="C81"/>
+    <hyperlink r:id="rId44" ref="C82"/>
+    <hyperlink r:id="rId45" ref="C83"/>
+    <hyperlink r:id="rId46" ref="C84"/>
+    <hyperlink r:id="rId47" ref="C85"/>
+    <hyperlink r:id="rId48" ref="C86"/>
+    <hyperlink r:id="rId49" ref="C87"/>
+    <hyperlink r:id="rId50" ref="C88"/>
+    <hyperlink r:id="rId51" ref="C89"/>
+    <hyperlink r:id="rId52" ref="C90"/>
+    <hyperlink r:id="rId53" ref="C91"/>
+    <hyperlink r:id="rId54" ref="C92"/>
+    <hyperlink r:id="rId55" ref="C93"/>
+    <hyperlink r:id="rId56" ref="C94"/>
+    <hyperlink r:id="rId57" ref="C95"/>
+    <hyperlink r:id="rId58" ref="C96"/>
+    <hyperlink r:id="rId59" ref="C97"/>
+    <hyperlink r:id="rId60" ref="C98"/>
+    <hyperlink r:id="rId61" ref="C99"/>
+    <hyperlink r:id="rId62" ref="C100"/>
+    <hyperlink r:id="rId63" ref="C101"/>
+    <hyperlink r:id="rId64" ref="C102"/>
+    <hyperlink r:id="rId65" ref="C103"/>
+    <hyperlink r:id="rId66" ref="C104"/>
+    <hyperlink r:id="rId67" ref="C105"/>
+    <hyperlink r:id="rId68" ref="C106"/>
+    <hyperlink r:id="rId69" ref="C107"/>
+    <hyperlink r:id="rId70" ref="C108"/>
+    <hyperlink r:id="rId71" ref="C109"/>
+    <hyperlink r:id="rId72" ref="C110"/>
+    <hyperlink r:id="rId73" ref="C111"/>
+    <hyperlink r:id="rId74" ref="C112"/>
+    <hyperlink r:id="rId75" ref="C113"/>
+    <hyperlink r:id="rId76" ref="C114"/>
+    <hyperlink r:id="rId77" ref="C115"/>
+    <hyperlink r:id="rId78" ref="C116"/>
+    <hyperlink r:id="rId79" ref="C117"/>
+    <hyperlink r:id="rId80" ref="C118"/>
+    <hyperlink r:id="rId81" ref="C119"/>
+    <hyperlink r:id="rId82" ref="C120"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.5" footer="0.0" header="0.0" left="0.75" right="0.75" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId23"/>
+  <drawing r:id="rId83"/>
 </worksheet>
 </file>